--- a/data/trans_camb/IP1004-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,96</t>
+          <t>-4,71; 2,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -0,77</t>
+          <t>-6,33; -0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,06</t>
+          <t>-2,32; 0,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; -0,37</t>
+          <t>-3,07; -0,37</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,33</t>
+          <t>-0,59; 0,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,0</t>
+          <t>-0,95; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,61</t>
+          <t>-0,4; 0,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,09</t>
+          <t>-0,45; 0,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,2</t>
+          <t>-0,41; 0,22</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,48</t>
+          <t>-0,8; 1,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,0</t>
+          <t>-1,99; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,17</t>
+          <t>-0,38; 1,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,0</t>
+          <t>-1,12; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,37</t>
+          <t>-0,65; 0,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; -0,18</t>
+          <t>-0,99; -0,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,24</t>
+          <t>-0,42; 0,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,39</t>
+          <t>-0,42; 0,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,21</t>
+          <t>-0,46; 0,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; -0,0</t>
+          <t>-0,57; -0,01</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,4; 175,12</t>
+          <t>-93,74; 124,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,47</t>
+          <t>-100,0; 49,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1004-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1004-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,27 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,15</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; -0,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 0,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 0,0</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 2,19</t>
+          <t>-0,99; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; -0,77</t>
+          <t>-0,53; 0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 0,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,97</t>
+          <t>-0,47; 0,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; -0,37</t>
+          <t>-0,42; 0,2</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-56,39%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>63,76%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-40,47%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-57,5%</t>
+          <t>-63,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-34,95%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,33</t>
+          <t>-0,79; 1,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,0</t>
+          <t>-1,99; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,0</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,12</t>
+          <t>-0,21; 1,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,22</t>
+          <t>-1,03; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-40,47%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>126,23%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>63,76%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-63,68%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-34,95%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>-0,42; 0,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,51</t>
+          <t>-0,63; 0,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,0</t>
+          <t>-0,99; -0,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,28</t>
+          <t>-0,44; 0,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,0</t>
+          <t>-0,55; -0,0</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>-29,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,12 +1165,12 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>126,23%</t>
+          <t>-34,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-71,81%</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 350,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,187 +1203,30 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,69; 158,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 37,97</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 0,39</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; -0,17</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 0,24</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 0,33</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 0,19</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; -0,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-29,4%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-46,2%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-34,53%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-71,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-93,74; 124,38</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 49,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
